--- a/ruchyPracownikow/my_sheet.xlsx
+++ b/ruchyPracownikow/my_sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wbachinski\Documents\GitHub\Python\PythonExcel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marta\Documents\GitHub\Python\ruchyPracownikow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59668FA-9FFF-48D1-8E69-07A0DBE2EE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A4D9C8-5C60-4DDA-A9C1-4E90AF5D598E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2025" yWindow="345" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="przyjecia" sheetId="3" r:id="rId1"/>
@@ -456,18 +456,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -481,7 +481,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -495,7 +495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -509,7 +509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -537,7 +537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -551,7 +551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -565,7 +565,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -579,7 +579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -593,7 +593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -607,7 +607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -621,7 +621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -648,13 +648,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.85546875" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -668,7 +668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -682,7 +682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -696,7 +696,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -710,7 +710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -724,7 +724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -752,7 +752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -766,7 +766,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -780,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -794,7 +794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -832,15 +832,15 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="4" width="11.85546875" customWidth="1"/>
+    <col min="3" max="4" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -857,7 +857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -874,7 +874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -891,7 +891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -908,7 +908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -925,9 +925,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -951,16 +951,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -974,7 +974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>39814</v>
       </c>
@@ -993,7 +993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>39815</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>39816</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>39817</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>39818</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>39819</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>39820</v>
       </c>
@@ -1107,7 +1107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>39821</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>39822</v>
       </c>
@@ -1145,7 +1145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>39823</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>39824</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>39825</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>39826</v>
       </c>
@@ -1221,7 +1221,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>39827</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>39828</v>
       </c>
@@ -1259,7 +1259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>39829</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>39830</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>39831</v>
       </c>
@@ -1316,7 +1316,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>39832</v>
       </c>
@@ -1335,7 +1335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>39833</v>
       </c>
@@ -1354,7 +1354,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>39834</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>39835</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>39836</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>39837</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>39838</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>39839</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>39840</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>39841</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>39842</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>39843</v>
       </c>
